--- a/q1_dataFiles/10_Rangtests_Panik.xlsx
+++ b/q1_dataFiles/10_Rangtests_Panik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Dropbox\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E733793-9230-4DB7-A2A2-560ED54CEA7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAF5CCC-8072-447D-96E9-9399A4BF92C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe_Unabh Stichproben" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>Psychologische Hypothese:</t>
   </si>
@@ -330,12 +330,6 @@
     <t xml:space="preserve">Die Daten sind also nicht normalverteilt, mehr  </t>
   </si>
   <si>
-    <t>Personen haben sehr viele Panikattacken.</t>
-  </si>
-  <si>
-    <t>(linksschiefe und rechtssteile Verteilung)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">= Wkt., dass ein Wert in Therapiegruppe </t>
     </r>
@@ -452,6 +446,54 @@
       </rPr>
       <t>: Berechnen Sie die Effektstärke</t>
     </r>
+  </si>
+  <si>
+    <t>Totale Rangsumme</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>1 bis 5</t>
+  </si>
+  <si>
+    <t>5 bis 10</t>
+  </si>
+  <si>
+    <t>10 bis 15</t>
+  </si>
+  <si>
+    <t>15 bis 20</t>
+  </si>
+  <si>
+    <t>20 bis 25</t>
+  </si>
+  <si>
+    <t>25 bis 30</t>
+  </si>
+  <si>
+    <t>Personen haben wenige Panikattacken und einzelne Personen haben sehr viele.</t>
+  </si>
+  <si>
+    <t>(rechtsschiefe und linkssteile Verteilung)</t>
+  </si>
+  <si>
+    <t>Vorher</t>
+  </si>
+  <si>
+    <t>Nachher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besonders nach der Therapie ist die </t>
+  </si>
+  <si>
+    <t>Verteilung rechtsschief und linkssteil:</t>
+  </si>
+  <si>
+    <t>die meisten Menschen haben sehr wenige Panikattacken,</t>
+  </si>
+  <si>
+    <t>einige wenige haben sehr viele.</t>
   </si>
 </sst>
 </file>
@@ -623,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -672,6 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -687,6 +730,2426 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Verteilung der Anzahlen der Panikattacken</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> in Therapie- und Kontrollgruppe</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lösung_Unabh Stichproben'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Therapie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lösung_Unabh Stichproben'!$A$55:$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 bis 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 bis 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 bis 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 bis 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 bis 25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 bis 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lösung_Unabh Stichproben'!$B$55:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-904F-4874-BC9D-C19637CABF27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lösung_Unabh Stichproben'!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kontroll</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lösung_Unabh Stichproben'!$A$55:$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 bis 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 bis 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 bis 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 bis 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 bis 25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 bis 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lösung_Unabh Stichproben'!$C$55:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-904F-4874-BC9D-C19637CABF27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1914864128"/>
+        <c:axId val="1914104336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1914864128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Kategorien</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914104336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1914104336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914864128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Verteilung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Häufigkeiten von Panikattacken vor und nach Behandlung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lösung_Abhängige Stichprobe'!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vorher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lösung_Abhängige Stichprobe'!$A$41:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 bis 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 bis 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 bis 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 bis 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 bis 25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 bis 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lösung_Abhängige Stichprobe'!$B$41:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D664-4BDE-A6CC-5F4BDBA92DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lösung_Abhängige Stichprobe'!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nachher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lösung_Abhängige Stichprobe'!$A$41:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 bis 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 bis 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 bis 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 bis 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 bis 25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 bis 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lösung_Abhängige Stichprobe'!$C$41:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D664-4BDE-A6CC-5F4BDBA92DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1916117280"/>
+        <c:axId val="1914120144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1916117280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Kategorien</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1914120144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1914120144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeiten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916117280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1180,9 +3643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>49534</xdr:colOff>
+      <xdr:colOff>52709</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>45867</xdr:rowOff>
+      <xdr:rowOff>55392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1224,9 +3687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>505689</xdr:colOff>
+      <xdr:colOff>512039</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>12048</xdr:rowOff>
+      <xdr:rowOff>15223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1273,7 +3736,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>297186</xdr:colOff>
+      <xdr:colOff>300361</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1324,7 +3787,7 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>760733</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1373,7 +3836,7 @@
       <xdr:col>43</xdr:col>
       <xdr:colOff>611420</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1409,6 +3872,42 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90919</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>753341</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB13B4F-EF6C-4102-B1C5-3C6798D99A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1604,16 +4103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>370211</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>376561</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>166975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1648,16 +4147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>733424</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>149226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>248689</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>305839</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>3163</xdr:rowOff>
+      <xdr:rowOff>15863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1680,8 +4179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9667874" y="4152901"/>
-          <a:ext cx="4849265" cy="1190612"/>
+          <a:off x="9890124" y="3902076"/>
+          <a:ext cx="4846090" cy="1130287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,16 +4196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>636909</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>643259</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>294739</xdr:rowOff>
+      <xdr:rowOff>301089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1741,16 +4240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>523876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>217482</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>227007</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>49382</xdr:rowOff>
+      <xdr:rowOff>52557</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1781,6 +4280,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708723AC-C69D-4491-B84C-150484852990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2055,19 +4590,19 @@
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.453125" style="6"/>
-    <col min="8" max="8" width="27.1796875" style="6" customWidth="1"/>
+    <col min="1" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="27.140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" style="6" customWidth="1"/>
-    <col min="12" max="17" width="11.453125" style="6"/>
-    <col min="18" max="18" width="16.1796875" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="6"/>
+    <col min="10" max="10" width="14.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="6" customWidth="1"/>
+    <col min="12" max="17" width="11.42578125" style="6"/>
+    <col min="18" max="18" width="16.140625" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2084,7 +4619,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +4636,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +4653,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2133,7 +4668,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>34</v>
       </c>
@@ -2150,7 +4685,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>52</v>
       </c>
@@ -2167,7 +4702,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
@@ -2184,7 +4719,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
@@ -2201,7 +4736,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>36</v>
       </c>
@@ -2218,14 +4753,14 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>2</v>
       </c>
@@ -2250,7 +4785,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -2285,7 +4820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -2301,7 +4836,7 @@
       <c r="N16" s="20"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -2323,7 +4858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>4</v>
       </c>
@@ -2339,7 +4874,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -2359,7 +4894,7 @@
       </c>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -2375,7 +4910,7 @@
       <c r="N20" s="20"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -2394,7 +4929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -2411,7 +4946,7 @@
       <c r="O22" s="21"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -2430,7 +4965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -2447,7 +4982,7 @@
       <c r="O24" s="21"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>11</v>
       </c>
@@ -2469,7 +5004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>12</v>
       </c>
@@ -2487,7 +5022,7 @@
       <c r="R26" s="13"/>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>13</v>
       </c>
@@ -2506,7 +5041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -2522,7 +5057,7 @@
       <c r="N28" s="20"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>15</v>
       </c>
@@ -2541,7 +5076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>16</v>
       </c>
@@ -2558,7 +5093,7 @@
       <c r="O30" s="21"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>17</v>
       </c>
@@ -2575,7 +5110,7 @@
       <c r="O31" s="21"/>
       <c r="R31" s="23"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>18</v>
       </c>
@@ -2591,7 +5126,7 @@
       <c r="N32" s="20"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>19</v>
       </c>
@@ -2607,7 +5142,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>20</v>
       </c>
@@ -2624,7 +5159,7 @@
       <c r="O34" s="21"/>
       <c r="R34" s="23"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>21</v>
       </c>
@@ -2640,7 +5175,7 @@
       <c r="N35" s="20"/>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C36" s="21">
         <v>19</v>
       </c>
@@ -2650,7 +5185,7 @@
       <c r="N36" s="20"/>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C37" s="21">
         <v>22</v>
       </c>
@@ -2659,13 +5194,13 @@
       <c r="J37" s="26"/>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>30</v>
       </c>
@@ -2676,7 +5211,7 @@
       <c r="I39" s="26"/>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +5221,7 @@
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>10</v>
       </c>
@@ -2694,87 +5229,87 @@
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H57" s="26"/>
       <c r="I57" s="26"/>
       <c r="J57" s="26"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I59" s="25" t="s">
         <v>48</v>
       </c>
@@ -2782,7 +5317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -2797,105 +5332,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="26"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" s="26"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
       <c r="F64" s="37"/>
       <c r="G64" s="36"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="26"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
       <c r="F65" s="37"/>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" s="26"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
       <c r="F66" s="37"/>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="26"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
       <c r="F67" s="37"/>
       <c r="G67" s="36"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="26"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
       <c r="F68" s="37"/>
       <c r="G68" s="36"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
@@ -2916,23 +5451,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4448D3E6-765E-4A5D-9A0B-7B068A9EBE7A}">
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.453125" style="6"/>
-    <col min="8" max="8" width="27.1796875" style="6" customWidth="1"/>
+    <col min="1" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="27.140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" style="6" customWidth="1"/>
-    <col min="12" max="17" width="11.453125" style="6"/>
-    <col min="18" max="18" width="16.1796875" style="6" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="6"/>
+    <col min="10" max="10" width="14.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="6" customWidth="1"/>
+    <col min="12" max="17" width="11.42578125" style="6"/>
+    <col min="18" max="18" width="16.140625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="6"/>
+    <col min="20" max="20" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2949,7 +5486,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +5503,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
@@ -2983,7 +5520,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2998,7 +5535,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>34</v>
       </c>
@@ -3015,7 +5552,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>52</v>
       </c>
@@ -3032,7 +5569,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
@@ -3049,7 +5586,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
@@ -3066,7 +5603,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>36</v>
       </c>
@@ -3083,7 +5620,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
@@ -3093,7 +5630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>2</v>
       </c>
@@ -3118,7 +5655,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -3153,7 +5690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -3193,7 +5730,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -3210,7 +5747,6 @@
         <v>2</v>
       </c>
       <c r="J17" s="27">
-        <f>SUM($I$17:$I$22)/6</f>
         <v>4.5</v>
       </c>
       <c r="N17" s="20">
@@ -3228,7 +5764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>4</v>
       </c>
@@ -3245,7 +5781,6 @@
         <v>3</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" ref="J18:J22" si="1">SUM($I$17:$I$22)/6</f>
         <v>4.5</v>
       </c>
       <c r="N18" s="20">
@@ -3263,7 +5798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -3280,7 +5815,6 @@
         <v>4</v>
       </c>
       <c r="J19" s="29">
-        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N19" s="20">
@@ -3296,7 +5830,7 @@
       </c>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -3313,7 +5847,6 @@
         <v>5</v>
       </c>
       <c r="J20" s="29">
-        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N20" s="20">
@@ -3329,7 +5862,7 @@
         <v>472.5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -3346,7 +5879,6 @@
         <v>6</v>
       </c>
       <c r="J21" s="29">
-        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N21" s="20">
@@ -3361,7 +5893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -3378,7 +5910,6 @@
         <v>7</v>
       </c>
       <c r="J22" s="31">
-        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="N22" s="20">
@@ -3394,7 +5925,7 @@
         <v>42.558782877333321</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -3411,7 +5942,6 @@
         <v>8</v>
       </c>
       <c r="J23" s="27">
-        <f>SUM($I$23:$I$27)/5</f>
         <v>10</v>
       </c>
       <c r="N23" s="20">
@@ -3426,7 +5956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -3443,7 +5973,6 @@
         <v>9</v>
       </c>
       <c r="J24" s="29">
-        <f t="shared" ref="J24:J27" si="2">SUM($I$23:$I$27)/5</f>
         <v>10</v>
       </c>
       <c r="N24" s="20">
@@ -3455,11 +5984,11 @@
         <v>19.5</v>
       </c>
       <c r="R24" s="13">
-        <f>(R20-R16)/R22</f>
-        <v>2.0207344803040255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+        <f>(R16-R20)/R22</f>
+        <v>-2.0207344803040255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>11</v>
       </c>
@@ -3476,7 +6005,6 @@
         <v>10</v>
       </c>
       <c r="J25" s="33">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N25" s="20">
@@ -3494,7 +6022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>12</v>
       </c>
@@ -3511,7 +6039,6 @@
         <v>11</v>
       </c>
       <c r="J26" s="33">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N26" s="20">
@@ -3523,15 +6050,15 @@
         <v>23.5</v>
       </c>
       <c r="R26" s="13">
-        <f>_xlfn.NORM.S.INV(0.95)</f>
-        <v>1.6448536269514715</v>
+        <f>_xlfn.NORM.S.INV(0.05)</f>
+        <v>-1.6448536269514726</v>
       </c>
       <c r="T26" s="22">
-        <f>1-_xlfn.NORM.S.DIST(R24,TRUE)</f>
-        <v>2.1653629239705485E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+        <f>_xlfn.NORM.S.DIST(R24,TRUE)</f>
+        <v>2.1653629239705478E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>13</v>
       </c>
@@ -3548,7 +6075,6 @@
         <v>12</v>
       </c>
       <c r="J27" s="31">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N27" s="20">
@@ -3563,7 +6089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -3580,7 +6106,6 @@
         <v>13</v>
       </c>
       <c r="J28" s="27">
-        <f>SUM($I$28:$I$32)/5</f>
         <v>15</v>
       </c>
       <c r="N28" s="20">
@@ -3595,7 +6120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>15</v>
       </c>
@@ -3612,7 +6137,6 @@
         <v>14</v>
       </c>
       <c r="J29" s="29">
-        <f t="shared" ref="J29:J32" si="3">SUM($I$28:$I$32)/5</f>
         <v>15</v>
       </c>
       <c r="N29" s="20">
@@ -3627,7 +6151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>16</v>
       </c>
@@ -3644,7 +6168,6 @@
         <v>15</v>
       </c>
       <c r="J30" s="29">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="N30" s="20">
@@ -3660,7 +6183,7 @@
         <v>0.67805383022774324</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>17</v>
       </c>
@@ -3677,7 +6200,6 @@
         <v>16</v>
       </c>
       <c r="J31" s="33">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="N31" s="20">
@@ -3689,10 +6211,10 @@
         <v>34</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>18</v>
       </c>
@@ -3709,7 +6231,6 @@
         <v>17</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="N32" s="20">
@@ -3721,7 +6242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>19</v>
       </c>
@@ -3738,7 +6259,6 @@
         <v>18</v>
       </c>
       <c r="J33" s="27">
-        <f>SUM($I$33:$I$36)/4</f>
         <v>19.5</v>
       </c>
       <c r="N33" s="20">
@@ -3750,7 +6270,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>20</v>
       </c>
@@ -3767,7 +6287,6 @@
         <v>19</v>
       </c>
       <c r="J34" s="33">
-        <f t="shared" ref="J34:J36" si="4">SUM($I$33:$I$36)/4</f>
         <v>19.5</v>
       </c>
       <c r="N34" s="20">
@@ -3780,7 +6299,7 @@
       </c>
       <c r="R34" s="23"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>21</v>
       </c>
@@ -3797,7 +6316,6 @@
         <v>20</v>
       </c>
       <c r="J35" s="33">
-        <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
       <c r="N35" s="20">
@@ -3808,8 +6326,12 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R35" s="13">
+        <f>_xlfn.NORM.S.INV(0.05/2)</f>
+        <v>-1.9599639845400538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>22</v>
       </c>
@@ -3823,7 +6345,6 @@
         <v>21</v>
       </c>
       <c r="J36" s="31">
-        <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
       <c r="N36" s="20">
@@ -3835,7 +6356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>23</v>
       </c>
@@ -3849,7 +6370,6 @@
         <v>22</v>
       </c>
       <c r="J37" s="27">
-        <f>SUM($I$37:$I$40)/4</f>
         <v>23.5</v>
       </c>
       <c r="O37" s="21">
@@ -3857,7 +6377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H38" s="29">
         <v>9</v>
       </c>
@@ -3865,15 +6385,14 @@
         <v>23</v>
       </c>
       <c r="J38" s="29">
-        <f t="shared" ref="J38:J40" si="5">SUM($I$37:$I$40)/4</f>
         <v>23.5</v>
       </c>
       <c r="O38" s="21">
-        <f t="shared" ref="O38" si="6">_xlfn.RANK.AVG(C37,$B$15:$C$37,1)</f>
+        <f t="shared" ref="O38" si="1">_xlfn.RANK.AVG(C37,$B$15:$C$37,1)</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H39" s="33">
         <v>9</v>
       </c>
@@ -3881,11 +6400,10 @@
         <v>24</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="5"/>
         <v>23.5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>30</v>
       </c>
@@ -3899,11 +6417,10 @@
         <v>25</v>
       </c>
       <c r="J40" s="31">
-        <f t="shared" si="5"/>
         <v>23.5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>9</v>
       </c>
@@ -3922,11 +6439,10 @@
         <v>26</v>
       </c>
       <c r="J41" s="27">
-        <f>SUM(I41:I42)/2</f>
         <v>26.5</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>10</v>
       </c>
@@ -3948,7 +6464,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H43" s="27">
         <v>11</v>
       </c>
@@ -3956,11 +6472,10 @@
         <v>28</v>
       </c>
       <c r="J43" s="27">
-        <f>SUM(I43:I44)/2</f>
         <v>28.5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H44" s="31">
         <v>11</v>
       </c>
@@ -3971,7 +6486,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
@@ -3985,7 +6500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>54</v>
       </c>
@@ -3999,7 +6514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>55</v>
       </c>
@@ -4010,13 +6525,12 @@
         <v>32</v>
       </c>
       <c r="J47" s="27">
-        <f>SUM(I47:I48)/2</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H48" s="31">
         <v>14</v>
@@ -4028,9 +6542,9 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H49" s="21">
         <v>15</v>
@@ -4042,7 +6556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H50" s="21">
         <v>16</v>
       </c>
@@ -4053,7 +6567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H51" s="20">
         <v>18</v>
       </c>
@@ -4064,7 +6578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H52" s="27">
         <v>19</v>
       </c>
@@ -4072,11 +6586,10 @@
         <v>37</v>
       </c>
       <c r="J52" s="27">
-        <f>SUM(I52:I54)/3</f>
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H53" s="33">
         <v>19</v>
       </c>
@@ -4087,7 +6600,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="H54" s="31">
         <v>19</v>
       </c>
@@ -4098,7 +6620,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="6">
+        <f>COUNTIF($B$15:$B$35,"&lt;=5")</f>
+        <v>6</v>
+      </c>
+      <c r="C55" s="6">
+        <f>COUNTIF($C$15:$C$37,"&lt;=5")</f>
+        <v>1</v>
+      </c>
       <c r="H55" s="20">
         <v>20</v>
       </c>
@@ -4109,7 +6642,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="6">
+        <f>COUNTIF($B$15:$B$35,"&lt;=10")-B55</f>
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <f>COUNTIF($C$15:$C$37,"&lt;=10")-C55</f>
+        <v>11</v>
+      </c>
       <c r="H56" s="21">
         <v>21</v>
       </c>
@@ -4120,7 +6664,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="6">
+        <f>COUNTIF($B$15:$B$35,"&lt;=15")-SUM(B55:B56)</f>
+        <v>3</v>
+      </c>
+      <c r="C57" s="6">
+        <f>COUNTIF($C$15:$C$37,"&lt;=15")-SUM(C55:C56)</f>
+        <v>4</v>
+      </c>
       <c r="H57" s="39">
         <v>22</v>
       </c>
@@ -4128,11 +6683,21 @@
         <v>42</v>
       </c>
       <c r="J57" s="39">
-        <f>SUM(I57:I58)/2</f>
         <v>42.5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="6">
+        <f>COUNTIF($B$15:$B$35,"&lt;=20")-SUM(B55:B57)</f>
+        <v>3</v>
+      </c>
+      <c r="C58" s="6">
+        <f>COUNTIF($C$15:$C$37,"&lt;=20")-SUM(C55:C57)</f>
+        <v>3</v>
+      </c>
       <c r="H58" s="31">
         <v>22</v>
       </c>
@@ -4143,7 +6708,18 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="6">
+        <f>COUNTIF($B$15:$B$35,"&lt;=25")-SUM(B55:B58)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="6">
+        <f>COUNTIF($C$15:$C$37,"&lt;=25")-SUM(C55:C58)</f>
+        <v>3</v>
+      </c>
       <c r="H59" s="21">
         <v>29</v>
       </c>
@@ -4154,28 +6730,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C60" s="26"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="6">
+        <f>COUNTIF($B$15:$B$35,"&gt;25")</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="6">
+        <f>COUNTIF($C$15:$C$37,"&gt;25")</f>
+        <v>1</v>
+      </c>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="26"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -4188,7 +6774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C64" s="26"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
@@ -4203,77 +6789,77 @@
         <v>990</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="26"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
       <c r="F65" s="37"/>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" s="26"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
       <c r="F66" s="37"/>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="26"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34"/>
       <c r="F67" s="37"/>
       <c r="G67" s="36"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="26"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
       <c r="F68" s="37"/>
       <c r="G68" s="36"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
@@ -4294,60 +6880,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B021FC5B-980E-489F-94CB-522DABEFD008}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -4355,7 +6941,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -4385,7 +6971,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4396,7 +6982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4407,7 +6993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4423,7 +7009,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4434,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4450,7 +7036,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -4462,7 +7048,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4478,7 +7064,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4490,7 +7076,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -4508,7 +7094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -4521,7 +7107,7 @@
       <c r="I21" s="8"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -4537,7 +7123,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -4549,7 +7135,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -4565,7 +7151,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -4577,7 +7163,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -4588,7 +7174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -4599,7 +7185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -4610,7 +7196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -4621,7 +7207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -4632,7 +7218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
@@ -4643,7 +7229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21</v>
       </c>
@@ -4654,7 +7240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>11</v>
@@ -4673,7 +7259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -4684,7 +7270,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -4700,62 +7286,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA799E5-2961-40FF-B156-FEEBFA45505E}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -4765,7 +7351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -4787,15 +7373,15 @@
       <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4821,16 +7407,16 @@
         <f>IF(D12&gt;0,F12," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>SUM(G12:G32)</f>
         <v>208</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>SUM(F12:F32)</f>
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4849,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F32" si="2">_xlfn.RANK.AVG(E13,$E$12:$E$32,1)</f>
+        <f t="shared" ref="F13:G32" si="2">_xlfn.RANK.AVG(E13,$E$12:$E$32,1)</f>
         <v>5</v>
       </c>
       <c r="G13">
@@ -4857,7 +7443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4883,13 +7469,13 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4915,12 +7501,12 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>(21*22)/4</f>
         <v>115.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4946,13 +7532,13 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -4978,12 +7564,12 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f>SQRT((21*22*(2*21+1))/24)</f>
         <v>28.770644761631605</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5009,13 +7595,13 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -5041,12 +7627,12 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="I19" s="8">
-        <f>(I12-I15)/I17</f>
+      <c r="J19" s="8">
+        <f>(J12-J15)/J17</f>
         <v>3.2150826221092395</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5072,15 +7658,15 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -5106,16 +7692,16 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <f>_xlfn.NORM.S.INV(0.95)</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="K21" s="24">
-        <f>1-_xlfn.NORM.S.DIST(I19,TRUE)</f>
+      <c r="L21" s="24">
+        <f>1-_xlfn.NORM.S.DIST(J19,TRUE)</f>
         <v>6.520349104469636E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -5141,13 +7727,13 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -5173,11 +7759,11 @@
         <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -5203,13 +7789,13 @@
         <f t="shared" si="3"/>
         <v>15.5</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -5235,12 +7821,12 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <f>(COUNTIF(D12:D32,"&gt;0")/COUNT(D12:D32))-0.5</f>
         <v>0.30952380952380953</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -5267,7 +7853,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -5294,7 +7880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -5321,7 +7907,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -5348,7 +7934,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -5375,7 +7961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
@@ -5402,7 +7988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21</v>
       </c>
@@ -5429,7 +8015,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>11</v>
@@ -5448,7 +8034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -5471,7 +8057,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -5486,6 +8072,115 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="6">
+        <f>COUNTIF($B$12:$B$32,"&lt;=5")</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <f>COUNTIF($C$10:$C$32,"&lt;=5")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="6">
+        <f>COUNTIF($B$12:$B$32,"&lt;=10")-B41</f>
+        <v>7</v>
+      </c>
+      <c r="C42" s="6">
+        <f>COUNTIF($C$10:$C$32,"&lt;=10")-C41</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="6">
+        <f>COUNTIF($B$12:$B$32,"&lt;=15")-SUM(B41:B42)</f>
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
+        <f>COUNTIF($C$10:$C$32,"&lt;=15")-SUM(C41:C42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="6">
+        <f>COUNTIF($B$12:$B$32,"&lt;=20")-SUM(B41:B43)</f>
+        <v>3</v>
+      </c>
+      <c r="C44" s="6">
+        <f>COUNTIF($C$10:$C$32,"&lt;=20")-SUM(C41:C43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="6">
+        <f>COUNTIF($B$12:$B$32,"&lt;=25")-SUM(B41:B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="6">
+        <f>COUNTIF($C$10:$C$32,"&lt;=25")-SUM(C41:C44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="6">
+        <f>COUNTIF($B$12:$B$32,"&gt;25")</f>
+        <v>4</v>
+      </c>
+      <c r="C46" s="6">
+        <f>COUNTIF($C$10:$C$32,"&gt;25")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/q1_dataFiles/10_Rangtests_Panik.xlsx
+++ b/q1_dataFiles/10_Rangtests_Panik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Dropbox\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAF5CCC-8072-447D-96E9-9399A4BF92C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F16C93-EEB4-4DE3-ADB6-A93D7F985E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
